--- a/학습자료/단답형/객관식_삼국시대_연도(왕)_신라.xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕)_신라.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>신라 건국
-1. 647년 : 진덕여왕
-2. -57년 : 박혁거세
-3. 501년 : 지증왕</t>
+1. 668년 : 문무왕
+2. 536년 : 법흥왕
+3. -57년 : 박혁거세</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, -57년 : 박혁거세</t>
+          <t>3, -57년 : 박혁거세</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>전기 가야연맹 몰락
-1. 663년 : 문무왕
-2. -57년 : 박혁거세
-3. 400년 : 내물왕</t>
+1. 608년 : 진평왕
+2. 400년 : 내물왕
+3. 517년 : 법흥왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 400년 : 내물왕</t>
+          <t>2, 400년 : 내물왕</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>나제 동맹 체결
-1. 433년 : 눌지왕
-2. 651년 : 무열왕
-3. 584년 : 진평왕</t>
+1. 650년 : 진덕여왕
+2. 433년 : 눌지왕
+3. 512년 : 지증왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 433년 : 눌지왕</t>
+          <t>2, 433년 : 눌지왕</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>고구려의 묵호자 신라에 불교 전래
-1. 457년 : 눌지왕
-2. 647년 : 진덕여왕
-3. 644년 : 선덕여왕</t>
+1. 666년 : 문무왕
+2. 584년 : 진평왕
+3. 457년 : 눌지왕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 457년 : 눌지왕</t>
+          <t>3, 457년 : 눌지왕</t>
         </is>
       </c>
     </row>
@@ -509,9 +509,9 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>신라 우역 설치
-1. 671년 : 문무왕
+1. 600년 : 진평왕
 2. 487년 : 소지왕
-3. 520년 : 법흥왕</t>
+3. 561년 : 진흥왕</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>신라 나을에 신궁 설치
-1. 512년 : 지증왕
-2. 487년 : 소지왕
-3. 642년 : 선덕여왕</t>
+1. 651년 : 진덕여왕
+2. 433년 : 눌지왕
+3. 487년 : 소지왕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2, 487년 : 소지왕</t>
+          <t>3, 487년 : 소지왕</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>신라 경주에 시장 개설
-1. 433년 : 눌지왕
-2. 531년 : 법흥왕
-3. 490년 : 소지왕</t>
+1. 490년 : 소지왕
+2. 676년 : 문무왕
+3. 561년 : 진흥왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3, 490년 : 소지왕</t>
+          <t>1, 490년 : 소지왕</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>백제 신라 결혼 동맹 체결
-1. 493년 : 소지왕
-2. 673년 : 문무왕
-3. 554년 : 진흥왕</t>
+1. 527년 : 법흥왕
+2. 493년 : 소지왕
+3. 504년 : 지증왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 493년 : 소지왕</t>
+          <t>2, 493년 : 소지왕</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>신라 포항 중성리 신라비 건립
-1. 524년 : 법흥왕
-2. 517년 : 법흥왕
-3. 501년 : 지증왕</t>
+1. 665년 : 문무왕
+2. 501년 : 지증왕
+3. 674년 : 문무왕</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3, 501년 : 지증왕</t>
+          <t>2, 501년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -584,8 +584,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>신라 소를 이용한 농사 시작
-1. 490년 : 소지왕
-2. 524년 : 법흥왕
+1. 532년 : 법흥왕
+2. 400년 : 내물왕
 3. 502년 : 지증왕</t>
         </is>
       </c>
@@ -599,7 +599,7 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>신라 사로국을 신라로 개칭
-1. 666년 : 문무왕
+1. -57년 : 박혁거세
 2. 503년 : 지증왕
 3. 645년 : 선덕여왕</t>
         </is>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>신라 왕 칭호 사용
-1. 503년 : 지증왕
-2. 644년 : 선덕여왕
-3. 648년 : 진덕여왕</t>
+1. 665년 : 문무왕
+2. 674년 : 문무왕
+3. 503년 : 지증왕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 503년 : 지증왕</t>
+          <t>3, 503년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -629,8 +629,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>신라 포항 냉수리 신라비 건립
-1. 608년 : 진평왕
-2. 493년 : 소지왕
+1. 568년 : 진평왕
+2. 644년 : 선덕여왕
 3. 503년 : 지증왕</t>
         </is>
       </c>
@@ -644,9 +644,9 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>신라 상복법 제정
-1. 642년 : 선덕여왕
+1. 634년 : 선덕여왕
 2. 504년 : 지증왕
-3. 527년 : 법흥왕</t>
+3. 517년 : 법흥왕</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>신라 이사부 실직주 군주로 파견
-1. 651년 : 무열왕
-2. 505년 : 지증왕
-3. 532년 : 법흥왕</t>
+1. 651년 : 진덕여왕
+2. 568년 : 진흥왕
+3. 505년 : 지증왕</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 505년 : 지증왕</t>
+          <t>3, 505년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>신라 경주에 동시 및 동시전 개설
-1. 509년 : 지증왕
-2. 503년 : 지증왕
-3. 555년 : 진흥왕</t>
+1. 651년 : 무열왕
+2. 647년 : 진덕여왕
+3. 509년 : 지증왕</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, 509년 : 지증왕</t>
+          <t>3, 509년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -689,9 +689,9 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>신라 이사부의 우산국 정벌
-1. 674년 : 문무왕
+1. 487년 : 소지왕
 2. 512년 : 지증왕
-3. 651년 : 진덕여왕</t>
+3. 545년 : 진흥왕</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>신라 아시촌 소경 설치
-1. 536년 : 법흥왕
-2. 514년 : 지증왕
-3. 545년 : 진흥왕</t>
+1. 514년 : 지증왕
+2. 676년 : 문무왕
+3. 493년 : 소지왕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, 514년 : 지증왕</t>
+          <t>1, 514년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>신라 병부 설치
-1. 517년 : 법흥왕
-2. 514년 : 지증왕
-3. 608년 : 진평왕</t>
+1. 568년 : 진흥왕
+2. 554년 : 진흥왕
+3. 517년 : 법흥왕</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1, 517년 : 법흥왕</t>
+          <t>3, 517년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>신라의 4색 공복 제정
-1. 665년 : 문무왕
-2. 568년 : 진흥왕
-3. 520년 : 법흥왕</t>
+1. 562년 : 진흥왕
+2. 520년 : 법흥왕
+3. 610년 : 진평왕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 520년 : 법흥왕</t>
+          <t>2, 520년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>신라 율령 반포
-1. 650년 : 진덕여왕
-2. 520년 : 법흥왕
-3. 584년 : 진평왕</t>
+1. 520년 : 법흥왕
+2. 644년 : 선덕여왕
+3. 490년 : 소지왕</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 520년 : 법흥왕</t>
+          <t>1, 520년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>신라 골품제도 정비
-1. 675년 : 문무왕
-2. 520년 : 법흥왕
-3. 554년 : 진흥왕</t>
+1. 634년 : 선덕여왕
+2. 545년 : 진흥왕
+3. 520년 : 법흥왕</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2, 520년 : 법흥왕</t>
+          <t>3, 520년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>대가야 신라의 결혼 동맹
-1. 532년 : 법흥왕
-2. 400년 : 내물왕
-3. 522년 : 법흥왕</t>
+1. 522년 : 법흥왕
+2. 503년 : 지증왕
+3. 512년 : 지증왕</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3, 522년 : 법흥왕</t>
+          <t>1, 522년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>신라 울진 봉평 신라비 건립
-1. 501년 : 지증왕
-2. 642년 : 선덕여왕
-3. 524년 : 법흥왕</t>
+1. 524년 : 법흥왕
+2. 536년 : 법흥왕
+3. 561년 : 진흥왕</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 524년 : 법흥왕</t>
+          <t>1, 524년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>신라 불교 공인
-1. 493년 : 소지왕
-2. 527년 : 법흥왕
-3. 517년 : 법흥왕</t>
+1. 501년 : 지증왕
+2. 660년 : 문무왕
+3. 527년 : 법흥왕</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2, 527년 : 법흥왕</t>
+          <t>3, 527년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -824,9 +824,9 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>신라 상대등 설치
-1. 504년 : 지증왕
+1. 651년 : 무열왕
 2. 531년 : 법흥왕
-3. 493년 : 소지왕</t>
+3. 674년 : 문무왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,7 +839,7 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>금관가야 정복
-1. 551년 : 진흥왕
+1. 545년 : 진흥왕
 2. 532년 : 법흥왕
 3. 493년 : 소지왕</t>
         </is>
@@ -854,8 +854,8 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>신라 연호 건원 사용
-1. 660년 : 문무왕
-2. 567년 : 진흥왕
+1. 645년 : 선덕여왕
+2. 568년 : 진평왕
 3. 536년 : 법흥왕</t>
         </is>
       </c>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>신라 거칠부 국사 편찬
-1. 490년 : 소지왕
-2. 545년 : 진흥왕
-3. 648년 : 진덕여왕</t>
+1. 545년 : 진흥왕
+2. -57년 : 박혁거세
+3. 581년 : 진평왕</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2, 545년 : 진흥왕</t>
+          <t>1, 545년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>신라 단양 적성비 건립
-1. 551년 : 진흥왕
-2. 554년 : 진흥왕
-3. 522년 : 법흥왕</t>
+1. 673년 : 문무왕
+2. 504년 : 지증왕
+3. 551년 : 진흥왕</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1, 551년 : 진흥왕</t>
+          <t>3, 551년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>신라 북한산 순수비 건립
-1. 600년 : 진평왕
-2. 610년 : 진평왕
-3. 554년 : 진흥왕</t>
+1. 554년 : 진흥왕
+2. 503년 : 지증왕
+3. 673년 : 문무왕</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3, 554년 : 진흥왕</t>
+          <t>1, 554년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>신라 창녕비 건립
-1. 584년 : 진평왕
-2. 555년 : 진흥왕
-3. 676년 : 문무왕</t>
+1. 610년 : 진평왕
+2. 524년 : 법흥왕
+3. 555년 : 진흥왕</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, 555년 : 진흥왕</t>
+          <t>3, 555년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>대가야 정복
-1. 531년 : 법흥왕
-2. 561년 : 진흥왕
-3. 650년 : 진덕여왕</t>
+1. 561년 : 진흥왕
+2. 568년 : 진평왕
+3. 562년 : 진흥왕</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2, 561년 : 진흥왕</t>
+          <t>1, 561년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>신라 품주 설치
-1. 562년 : 진흥왕
-2. 531년 : 법흥왕
-3. 642년 : 선덕여왕</t>
+1. 634년 : 선덕여왕
+2. 663년 : 문무왕
+3. 562년 : 진흥왕</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1, 562년 : 진흥왕</t>
+          <t>3, 562년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -959,9 +959,9 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>신라 황룡사 건립
-1. 493년 : 소지왕
+1. 562년 : 진흥왕
 2. 567년 : 진흥왕
-3. 651년 : 진덕여왕</t>
+3. 651년 : 무열왕</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>신라 황초령비 건립
-1. 562년 : 진흥왕
-2. 645년 : 선덕여왕
-3. 567년 : 진흥왕</t>
+1. 567년 : 진흥왕
+2. 555년 : 진흥왕
+3. 502년 : 지증왕</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3, 567년 : 진흥왕</t>
+          <t>1, 567년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>신라 마운령비 건립
-1. -57년 : 박혁거세
-2. 568년 : 진흥왕
+1. 568년 : 진흥왕
+2. 651년 : 진덕여왕
 3. 487년 : 소지왕</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2, 568년 : 진흥왕</t>
+          <t>1, 568년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>신라 위화부 설치
-1. 568년 : 진평왕
-2. 668년 : 문무왕
-3. -57년 : 박혁거세</t>
+1. 536년 : 법흥왕
+2. 524년 : 법흥왕
+3. 568년 : 진평왕</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1, 568년 : 진평왕</t>
+          <t>3, 568년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1019,14 +1019,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>신라 조부 설치
-1. 562년 : 진흥왕
-2. 651년 : 진덕여왕
-3. 581년 : 진평왕</t>
+1. 581년 : 진평왕
+2. 551년 : 진흥왕
+3. 545년 : 진흥왕</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3, 581년 : 진평왕</t>
+          <t>1, 581년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>신라 예부 설치
-1. 584년 : 진평왕
-2. 651년 : 무열왕
-3. 502년 : 지증왕</t>
+1. 634년 : 선덕여왕
+2. 584년 : 진평왕
+3. 666년 : 문무왕</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1, 584년 : 진평왕</t>
+          <t>2, 584년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>신라 원광 수나라에 걸사표 전달
-1. 642년 : 선덕여왕
-2. 600년 : 진평왕
-3. 503년 : 지증왕</t>
+1. 568년 : 진평왕
+2. 644년 : 선덕여왕
+3. 600년 : 진평왕</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2, 600년 : 진평왕</t>
+          <t>3, 600년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1064,14 +1064,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>신라 김유신을 중심으로 향도 조직
-1. 608년 : 진평왕
-2. 517년 : 법흥왕
-3. 634년 : 선덕여왕</t>
+1. 634년 : 선덕여왕
+2. 608년 : 진평왕
+3. 532년 : 법흥왕</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1, 608년 : 진평왕</t>
+          <t>2, 608년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1079,14 +1079,14 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>신라 임신서기석 건립
-1. 608년 : 진평왕
-2. 642년 : 선덕여왕
-3. 610년 : 진평왕</t>
+1. 610년 : 진평왕
+2. 545년 : 진흥왕
+3. 501년 : 지증왕</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3, 610년 : 진평왕</t>
+          <t>1, 610년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>신라 분황사 창건 및 모전석탑 건립
-1. 634년 : 선덕여왕
-2. 551년 : 진흥왕
-3. -57년 : 박혁거세</t>
+1. 501년 : 지증왕
+2. 634년 : 선덕여왕
+3. 555년 : 진흥왕</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1, 634년 : 선덕여왕</t>
+          <t>2, 634년 : 선덕여왕</t>
         </is>
       </c>
     </row>
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>신라 김춘추 고구려와 화친 시도 실패
-1. 642년 : 선덕여왕
-2. 610년 : 진평왕
-3. 493년 : 소지왕</t>
+1. 457년 : 눌지왕
+2. 642년 : 선덕여왕
+3. 666년 : 문무왕</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1, 642년 : 선덕여왕</t>
+          <t>2, 642년 : 선덕여왕</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>신라 황룡사 9층 목탑 건립
-1. 644년 : 선덕여왕
-2. 555년 : 진흥왕
-3. 514년 : 지증왕</t>
+1. 600년 : 진평왕
+2. 644년 : 선덕여왕
+3. 524년 : 법흥왕</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1, 644년 : 선덕여왕</t>
+          <t>2, 644년 : 선덕여왕</t>
         </is>
       </c>
     </row>
@@ -1140,8 +1140,8 @@
         <is>
           <t>신라 비담 염종의 난
 1. 645년 : 선덕여왕
-2. 433년 : 눌지왕
-3. 610년 : 진평왕</t>
+2. 536년 : 법흥왕
+3. 673년 : 문무왕</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1154,8 +1154,8 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>신라 나당 동맹 체결
-1. 671년 : 문무왕
-2. 634년 : 선덕여왕
+1. 668년 : 문무왕
+2. 520년 : 법흥왕
 3. 647년 : 진덕여왕</t>
         </is>
       </c>
@@ -1169,8 +1169,8 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>신라 당나라 연호인 영휘 사용
-1. 555년 : 진흥왕
-2. 665년 : 문무왕
+1. 545년 : 진흥왕
+2. 517년 : 법흥왕
 3. 648년 : 진덕여왕</t>
         </is>
       </c>
@@ -1184,9 +1184,9 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>신라 당나라에 태평송 전함
-1. -57년 : 박혁거세
+1. 509년 : 지증왕
 2. 650년 : 진덕여왕
-3. 600년 : 진평왕</t>
+3. 663년 : 문무왕</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>신라 품주를 집사부 창부로 분리
-1. 555년 : 진흥왕
-2. 650년 : 진덕여왕
-3. 642년 : 선덕여왕</t>
+1. 650년 : 진덕여왕
+2. 505년 : 지증왕
+3. 673년 : 문무왕</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2, 650년 : 진덕여왕</t>
+          <t>1, 650년 : 진덕여왕</t>
         </is>
       </c>
     </row>
@@ -1214,9 +1214,9 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>신라 좌이방부 설치
-1. 600년 : 진평왕
+1. 400년 : 내물왕
 2. 651년 : 진덕여왕
-3. 554년 : 진흥왕</t>
+3. 524년 : 법흥왕</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1229,14 +1229,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>신라 사정부 설치
-1. 651년 : 무열왕
-2. 512년 : 지증왕
-3. 665년 : 문무왕</t>
+1. 671년 : 문무왕
+2. 651년 : 무열왕
+3. 561년 : 진흥왕</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1, 651년 : 무열왕</t>
+          <t>2, 651년 : 무열왕</t>
         </is>
       </c>
     </row>
@@ -1244,14 +1244,14 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>신라 복신 도침의 주류성 함락
-1. 520년 : 법흥왕
-2. 512년 : 지증왕
-3. 660년 : 문무왕</t>
+1. 660년 : 문무왕
+2. 509년 : 지증왕
+3. 433년 : 눌지왕</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3, 660년 : 문무왕</t>
+          <t>1, 660년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1259,8 +1259,8 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>당의 계림도독부 설치
-1. 671년 : 문무왕
-2. 568년 : 진평왕
+1. 634년 : 선덕여왕
+2. 400년 : 내물왕
 3. 663년 : 문무왕</t>
         </is>
       </c>
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>신라 취리산 회맹
-1. 663년 : 문무왕
-2. 536년 : 법흥왕
-3. 584년 : 진평왕</t>
+1. 517년 : 법흥왕
+2. 503년 : 지증왕
+3. 663년 : 문무왕</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1, 663년 : 문무왕</t>
+          <t>3, 663년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1289,14 +1289,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>고구려 연정토 신라에 투항
-1. 650년 : 진덕여왕
-2. 665년 : 문무왕
-3. 551년 : 진흥왕</t>
+1. 665년 : 문무왕
+2. 531년 : 법흥왕
+3. 504년 : 지증왕</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2, 665년 : 문무왕</t>
+          <t>1, 665년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1304,14 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>신라 우이방부 설치
-1. 545년 : 진흥왕
-2. 568년 : 진흥왕
-3. 666년 : 문무왕</t>
+1. 562년 : 진흥왕
+2. 666년 : 문무왕
+3. 671년 : 문무왕</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3, 666년 : 문무왕</t>
+          <t>2, 666년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>신라 사비에 소부리주 설치
-1. 545년 : 진흥왕
-2. 503년 : 지증왕
-3. 668년 : 문무왕</t>
+1. 502년 : 지증왕
+2. 668년 : 문무왕
+3. 505년 : 지증왕</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3, 668년 : 문무왕</t>
+          <t>2, 668년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1334,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>신라 외사정 설치
-1. 610년 : 진평왕
-2. 671년 : 문무왕
-3. 562년 : 진흥왕</t>
+1. 671년 : 문무왕
+2. 673년 : 문무왕
+3. 645년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2, 671년 : 문무왕</t>
+          <t>1, 671년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1349,8 +1349,8 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>신라 안승을 보덕국왕에 임명
-1. 524년 : 법흥왕
-2. 532년 : 법흥왕
+1. 514년 : 지증왕
+2. 487년 : 소지왕
 3. 673년 : 문무왕</t>
         </is>
       </c>
@@ -1364,14 +1364,14 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>신라 당나라와 마전 적성 전투
-1. 674년 : 문무왕
-2. 551년 : 진흥왕
-3. 517년 : 법흥왕</t>
+1. 645년 : 선덕여왕
+2. 674년 : 문무왕
+3. 660년 : 문무왕</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1, 674년 : 문무왕</t>
+          <t>2, 674년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1379,14 +1379,14 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>신라 당나라와 매소성 전투
-1. 644년 : 선덕여왕
-2. 675년 : 문무왕
-3. 600년 : 진평왕</t>
+1. 675년 : 문무왕
+2. 527년 : 법흥왕
+3. 644년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2, 675년 : 문무왕</t>
+          <t>1, 675년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1394,14 +1394,14 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>의상 부석사 건립
-1. 675년 : 문무왕
-2. 487년 : 소지왕
-3. 504년 : 지증왕</t>
+1. 642년 : 선덕여왕
+2. 675년 : 문무왕
+3. 554년 : 진흥왕</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1, 675년 : 문무왕</t>
+          <t>2, 675년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1409,14 +1409,14 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>신라 당의 안동도호부 축출
-1. 676년 : 문무왕
-2. 502년 : 지증왕
-3. 554년 : 진흥왕</t>
+1. -57년 : 박혁거세
+2. 676년 : 문무왕
+3. 650년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1, 676년 : 문무왕</t>
+          <t>2, 676년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1424,14 +1424,14 @@
       <c r="A67" t="inlineStr">
         <is>
           <t>신라 당나라와 기벌포 전투
-1. 568년 : 진평왕
-2. 648년 : 진덕여왕
-3. 676년 : 문무왕</t>
+1. 562년 : 진흥왕
+2. 676년 : 문무왕
+3. 555년 : 진흥왕</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3, 676년 : 문무왕</t>
+          <t>2, 676년 : 문무왕</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_삼국시대_연도(왕)_신라.xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕)_신라.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>신라 건국
-1. 668년 : 문무왕
-2. 536년 : 법흥왕
-3. -57년 : 박혁거세</t>
+1. -57년 : 박혁거세
+2. 671년 : 문무왕
+3. 610년 : 진평왕</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, -57년 : 박혁거세</t>
+          <t>1, -57년 : 박혁거세</t>
         </is>
       </c>
     </row>
@@ -464,9 +464,9 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>전기 가야연맹 몰락
-1. 608년 : 진평왕
+1. 503년 : 지증왕
 2. 400년 : 내물왕
-3. 517년 : 법흥왕</t>
+3. 581년 : 진평왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>나제 동맹 체결
-1. 650년 : 진덕여왕
-2. 433년 : 눌지왕
-3. 512년 : 지증왕</t>
+1. 433년 : 눌지왕
+2. 555년 : 진흥왕
+3. 581년 : 진평왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 433년 : 눌지왕</t>
+          <t>1, 433년 : 눌지왕</t>
         </is>
       </c>
     </row>
@@ -494,8 +494,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>고구려의 묵호자 신라에 불교 전래
-1. 666년 : 문무왕
-2. 584년 : 진평왕
+1. 568년 : 진흥왕
+2. 503년 : 지증왕
 3. 457년 : 눌지왕</t>
         </is>
       </c>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>신라 우역 설치
-1. 600년 : 진평왕
-2. 487년 : 소지왕
-3. 561년 : 진흥왕</t>
+1. 555년 : 진흥왕
+2. 668년 : 문무왕
+3. 487년 : 소지왕</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 487년 : 소지왕</t>
+          <t>3, 487년 : 소지왕</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>신라 나을에 신궁 설치
-1. 651년 : 진덕여왕
-2. 433년 : 눌지왕
-3. 487년 : 소지왕</t>
+1. 487년 : 소지왕
+2. 673년 : 문무왕
+3. 561년 : 진흥왕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 487년 : 소지왕</t>
+          <t>1, 487년 : 소지왕</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>신라 경주에 시장 개설
-1. 490년 : 소지왕
-2. 676년 : 문무왕
-3. 561년 : 진흥왕</t>
+1. 634년 : 선덕여왕
+2. 490년 : 소지왕
+3. 520년 : 법흥왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 490년 : 소지왕</t>
+          <t>2, 490년 : 소지왕</t>
         </is>
       </c>
     </row>
@@ -554,9 +554,9 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>백제 신라 결혼 동맹 체결
-1. 527년 : 법흥왕
+1. 651년 : 진덕여왕
 2. 493년 : 소지왕
-3. 504년 : 지증왕</t>
+3. 524년 : 법흥왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -569,9 +569,9 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>신라 포항 중성리 신라비 건립
-1. 665년 : 문무왕
+1. 522년 : 법흥왕
 2. 501년 : 지증왕
-3. 674년 : 문무왕</t>
+3. 545년 : 진흥왕</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>신라 소를 이용한 농사 시작
-1. 532년 : 법흥왕
-2. 400년 : 내물왕
-3. 502년 : 지증왕</t>
+1. 502년 : 지증왕
+2. 666년 : 문무왕
+3. 650년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, 502년 : 지증왕</t>
+          <t>1, 502년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>신라 사로국을 신라로 개칭
-1. -57년 : 박혁거세
-2. 503년 : 지증왕
-3. 645년 : 선덕여왕</t>
+1. 532년 : 법흥왕
+2. 487년 : 소지왕
+3. 503년 : 지증왕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 503년 : 지증왕</t>
+          <t>3, 503년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>신라 왕 칭호 사용
-1. 665년 : 문무왕
-2. 674년 : 문무왕
-3. 503년 : 지증왕</t>
+1. 503년 : 지증왕
+2. 568년 : 진평왕
+3. 509년 : 지증왕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3, 503년 : 지증왕</t>
+          <t>1, 503년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>신라 포항 냉수리 신라비 건립
-1. 568년 : 진평왕
-2. 644년 : 선덕여왕
-3. 503년 : 지증왕</t>
+1. 503년 : 지증왕
+2. 493년 : 소지왕
+3. 642년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3, 503년 : 지증왕</t>
+          <t>1, 503년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>신라 상복법 제정
-1. 634년 : 선덕여왕
-2. 504년 : 지증왕
-3. 517년 : 법흥왕</t>
+1. 608년 : 진평왕
+2. 645년 : 선덕여왕
+3. 504년 : 지증왕</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 504년 : 지증왕</t>
+          <t>3, 504년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>신라 이사부 실직주 군주로 파견
-1. 651년 : 진덕여왕
-2. 568년 : 진흥왕
-3. 505년 : 지증왕</t>
+1. 505년 : 지증왕
+2. -57년 : 박혁거세
+3. 524년 : 법흥왕</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3, 505년 : 지증왕</t>
+          <t>1, 505년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>신라 경주에 동시 및 동시전 개설
-1. 651년 : 무열왕
-2. 647년 : 진덕여왕
-3. 509년 : 지증왕</t>
+1. 509년 : 지증왕
+2. 666년 : 문무왕
+3. 676년 : 문무왕</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3, 509년 : 지증왕</t>
+          <t>1, 509년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -689,9 +689,9 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>신라 이사부의 우산국 정벌
-1. 487년 : 소지왕
+1. 671년 : 문무왕
 2. 512년 : 지증왕
-3. 545년 : 진흥왕</t>
+3. 527년 : 법흥왕</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -705,8 +705,8 @@
         <is>
           <t>신라 아시촌 소경 설치
 1. 514년 : 지증왕
-2. 676년 : 문무왕
-3. 493년 : 소지왕</t>
+2. 645년 : 선덕여왕
+3. 671년 : 문무왕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>신라 병부 설치
-1. 568년 : 진흥왕
-2. 554년 : 진흥왕
-3. 517년 : 법흥왕</t>
+1. 517년 : 법흥왕
+2. 562년 : 진흥왕
+3. 400년 : 내물왕</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3, 517년 : 법흥왕</t>
+          <t>1, 517년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>신라의 4색 공복 제정
-1. 562년 : 진흥왕
-2. 520년 : 법흥왕
-3. 610년 : 진평왕</t>
+1. 520년 : 법흥왕
+2. 512년 : 지증왕
+3. 493년 : 소지왕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 520년 : 법흥왕</t>
+          <t>1, 520년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -750,8 +750,8 @@
         <is>
           <t>신라 율령 반포
 1. 520년 : 법흥왕
-2. 644년 : 선덕여왕
-3. 490년 : 소지왕</t>
+2. 675년 : 문무왕
+3. 674년 : 문무왕</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>신라 골품제도 정비
-1. 634년 : 선덕여왕
-2. 545년 : 진흥왕
-3. 520년 : 법흥왕</t>
+1. 520년 : 법흥왕
+2. 493년 : 소지왕
+3. 660년 : 문무왕</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3, 520년 : 법흥왕</t>
+          <t>1, 520년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>대가야 신라의 결혼 동맹
-1. 522년 : 법흥왕
-2. 503년 : 지증왕
-3. 512년 : 지증왕</t>
+1. 545년 : 진흥왕
+2. 522년 : 법흥왕
+3. 642년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 522년 : 법흥왕</t>
+          <t>2, 522년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>신라 울진 봉평 신라비 건립
-1. 524년 : 법흥왕
-2. 536년 : 법흥왕
-3. 561년 : 진흥왕</t>
+1. 642년 : 선덕여왕
+2. 663년 : 문무왕
+3. 524년 : 법흥왕</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1, 524년 : 법흥왕</t>
+          <t>3, 524년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>신라 불교 공인
-1. 501년 : 지증왕
-2. 660년 : 문무왕
-3. 527년 : 법흥왕</t>
+1. 527년 : 법흥왕
+2. 505년 : 지증왕
+3. 522년 : 법흥왕</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 527년 : 법흥왕</t>
+          <t>1, 527년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>신라 상대등 설치
-1. 651년 : 무열왕
-2. 531년 : 법흥왕
-3. 674년 : 문무왕</t>
+1. 531년 : 법흥왕
+2. 675년 : 문무왕
+3. 509년 : 지증왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 531년 : 법흥왕</t>
+          <t>1, 531년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -839,9 +839,9 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>금관가야 정복
-1. 545년 : 진흥왕
+1. 502년 : 지증왕
 2. 532년 : 법흥왕
-3. 493년 : 소지왕</t>
+3. 505년 : 지증왕</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -854,8 +854,8 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>신라 연호 건원 사용
-1. 645년 : 선덕여왕
-2. 568년 : 진평왕
+1. 666년 : 문무왕
+2. 433년 : 눌지왕
 3. 536년 : 법흥왕</t>
         </is>
       </c>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>신라 거칠부 국사 편찬
-1. 545년 : 진흥왕
-2. -57년 : 박혁거세
-3. 581년 : 진평왕</t>
+1. 674년 : 문무왕
+2. 545년 : 진흥왕
+3. 487년 : 소지왕</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1, 545년 : 진흥왕</t>
+          <t>2, 545년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>신라 단양 적성비 건립
-1. 673년 : 문무왕
-2. 504년 : 지증왕
-3. 551년 : 진흥왕</t>
+1. 562년 : 진흥왕
+2. 551년 : 진흥왕
+3. 524년 : 법흥왕</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3, 551년 : 진흥왕</t>
+          <t>2, 551년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
           <t>신라 북한산 순수비 건립
 1. 554년 : 진흥왕
 2. 503년 : 지증왕
-3. 673년 : 문무왕</t>
+3. 650년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>신라 창녕비 건립
-1. 610년 : 진평왕
-2. 524년 : 법흥왕
-3. 555년 : 진흥왕</t>
+1. 555년 : 진흥왕
+2. 660년 : 문무왕
+3. 608년 : 진평왕</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3, 555년 : 진흥왕</t>
+          <t>1, 555년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>대가야 정복
-1. 561년 : 진흥왕
-2. 568년 : 진평왕
-3. 562년 : 진흥왕</t>
+1. 532년 : 법흥왕
+2. 561년 : 진흥왕
+3. 433년 : 눌지왕</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1, 561년 : 진흥왕</t>
+          <t>2, 561년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>신라 품주 설치
-1. 634년 : 선덕여왕
-2. 663년 : 문무왕
-3. 562년 : 진흥왕</t>
+1. 663년 : 문무왕
+2. 562년 : 진흥왕
+3. 561년 : 진흥왕</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3, 562년 : 진흥왕</t>
+          <t>2, 562년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -959,9 +959,9 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>신라 황룡사 건립
-1. 562년 : 진흥왕
+1. 675년 : 문무왕
 2. 567년 : 진흥왕
-3. 651년 : 무열왕</t>
+3. 520년 : 법흥왕</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -975,8 +975,8 @@
         <is>
           <t>신라 황초령비 건립
 1. 567년 : 진흥왕
-2. 555년 : 진흥왕
-3. 502년 : 지증왕</t>
+2. 514년 : 지증왕
+3. 551년 : 진흥왕</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -990,8 +990,8 @@
         <is>
           <t>신라 마운령비 건립
 1. 568년 : 진흥왕
-2. 651년 : 진덕여왕
-3. 487년 : 소지왕</t>
+2. 520년 : 법흥왕
+3. 501년 : 지증왕</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>신라 위화부 설치
-1. 536년 : 법흥왕
-2. 524년 : 법흥왕
-3. 568년 : 진평왕</t>
+1. 517년 : 법흥왕
+2. 568년 : 진평왕
+3. 502년 : 지증왕</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3, 568년 : 진평왕</t>
+          <t>2, 568년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1019,14 +1019,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>신라 조부 설치
-1. 581년 : 진평왕
-2. 551년 : 진흥왕
-3. 545년 : 진흥왕</t>
+1. 512년 : 지증왕
+2. 581년 : 진평왕
+3. 524년 : 법흥왕</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1, 581년 : 진평왕</t>
+          <t>2, 581년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1034,9 +1034,9 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>신라 예부 설치
-1. 634년 : 선덕여왕
+1. 660년 : 문무왕
 2. 584년 : 진평왕
-3. 666년 : 문무왕</t>
+3. 527년 : 법흥왕</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1049,8 +1049,8 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>신라 원광 수나라에 걸사표 전달
-1. 568년 : 진평왕
-2. 644년 : 선덕여왕
+1. 503년 : 지증왕
+2. 608년 : 진평왕
 3. 600년 : 진평왕</t>
         </is>
       </c>
@@ -1064,9 +1064,9 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>신라 김유신을 중심으로 향도 조직
-1. 634년 : 선덕여왕
+1. 644년 : 선덕여왕
 2. 608년 : 진평왕
-3. 532년 : 법흥왕</t>
+3. 517년 : 법흥왕</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1080,8 +1080,8 @@
         <is>
           <t>신라 임신서기석 건립
 1. 610년 : 진평왕
-2. 545년 : 진흥왕
-3. 501년 : 지증왕</t>
+2. 487년 : 소지왕
+3. 568년 : 진흥왕</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1094,9 +1094,9 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>신라 분황사 창건 및 모전석탑 건립
-1. 501년 : 지증왕
+1. 647년 : 진덕여왕
 2. 634년 : 선덕여왕
-3. 555년 : 진흥왕</t>
+3. 551년 : 진흥왕</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>신라 김춘추 고구려와 화친 시도 실패
-1. 457년 : 눌지왕
-2. 642년 : 선덕여왕
-3. 666년 : 문무왕</t>
+1. 562년 : 진흥왕
+2. 509년 : 지증왕
+3. 642년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2, 642년 : 선덕여왕</t>
+          <t>3, 642년 : 선덕여왕</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>신라 황룡사 9층 목탑 건립
-1. 600년 : 진평왕
-2. 644년 : 선덕여왕
-3. 524년 : 법흥왕</t>
+1. 644년 : 선덕여왕
+2. 501년 : 지증왕
+3. 562년 : 진흥왕</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2, 644년 : 선덕여왕</t>
+          <t>1, 644년 : 선덕여왕</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>신라 비담 염종의 난
-1. 645년 : 선덕여왕
-2. 536년 : 법흥왕
-3. 673년 : 문무왕</t>
+1. 651년 : 진덕여왕
+2. 645년 : 선덕여왕
+3. 647년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1, 645년 : 선덕여왕</t>
+          <t>2, 645년 : 선덕여왕</t>
         </is>
       </c>
     </row>
@@ -1154,8 +1154,8 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>신라 나당 동맹 체결
-1. 668년 : 문무왕
-2. 520년 : 법흥왕
+1. 501년 : 지증왕
+2. 503년 : 지증왕
 3. 647년 : 진덕여왕</t>
         </is>
       </c>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>신라 당나라 연호인 영휘 사용
-1. 545년 : 진흥왕
-2. 517년 : 법흥왕
-3. 648년 : 진덕여왕</t>
+1. 642년 : 선덕여왕
+2. 648년 : 진덕여왕
+3. 536년 : 법흥왕</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3, 648년 : 진덕여왕</t>
+          <t>2, 648년 : 진덕여왕</t>
         </is>
       </c>
     </row>
@@ -1184,9 +1184,9 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>신라 당나라에 태평송 전함
-1. 509년 : 지증왕
+1. 600년 : 진평왕
 2. 650년 : 진덕여왕
-3. 663년 : 문무왕</t>
+3. 512년 : 지증왕</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>신라 품주를 집사부 창부로 분리
-1. 650년 : 진덕여왕
-2. 505년 : 지증왕
-3. 673년 : 문무왕</t>
+1. 505년 : 지증왕
+2. 503년 : 지증왕
+3. 650년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1, 650년 : 진덕여왕</t>
+          <t>3, 650년 : 진덕여왕</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>신라 좌이방부 설치
-1. 400년 : 내물왕
-2. 651년 : 진덕여왕
-3. 524년 : 법흥왕</t>
+1. 651년 : 진덕여왕
+2. 433년 : 눌지왕
+3. 665년 : 문무왕</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2, 651년 : 진덕여왕</t>
+          <t>1, 651년 : 진덕여왕</t>
         </is>
       </c>
     </row>
@@ -1229,14 +1229,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>신라 사정부 설치
-1. 671년 : 문무왕
-2. 651년 : 무열왕
-3. 561년 : 진흥왕</t>
+1. 493년 : 소지왕
+2. 562년 : 진흥왕
+3. 651년 : 무열왕</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2, 651년 : 무열왕</t>
+          <t>3, 651년 : 무열왕</t>
         </is>
       </c>
     </row>
@@ -1245,8 +1245,8 @@
         <is>
           <t>신라 복신 도침의 주류성 함락
 1. 660년 : 문무왕
-2. 509년 : 지증왕
-3. 433년 : 눌지왕</t>
+2. 400년 : 내물왕
+3. 490년 : 소지왕</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1259,8 +1259,8 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>당의 계림도독부 설치
-1. 634년 : 선덕여왕
-2. 400년 : 내물왕
+1. 584년 : 진평왕
+2. 487년 : 소지왕
 3. 663년 : 문무왕</t>
         </is>
       </c>
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>신라 취리산 회맹
-1. 517년 : 법흥왕
-2. 503년 : 지증왕
-3. 663년 : 문무왕</t>
+1. 581년 : 진평왕
+2. 663년 : 문무왕
+3. 634년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3, 663년 : 문무왕</t>
+          <t>2, 663년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1289,14 +1289,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>고구려 연정토 신라에 투항
-1. 665년 : 문무왕
-2. 531년 : 법흥왕
-3. 504년 : 지증왕</t>
+1. 487년 : 소지왕
+2. 610년 : 진평왕
+3. 665년 : 문무왕</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1, 665년 : 문무왕</t>
+          <t>3, 665년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1304,14 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>신라 우이방부 설치
-1. 562년 : 진흥왕
-2. 666년 : 문무왕
-3. 671년 : 문무왕</t>
+1. 666년 : 문무왕
+2. 509년 : 지증왕
+3. 584년 : 진평왕</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2, 666년 : 문무왕</t>
+          <t>1, 666년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>신라 사비에 소부리주 설치
-1. 502년 : 지증왕
-2. 668년 : 문무왕
-3. 505년 : 지증왕</t>
+1. 457년 : 눌지왕
+2. 674년 : 문무왕
+3. 668년 : 문무왕</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2, 668년 : 문무왕</t>
+          <t>3, 668년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1334,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>신라 외사정 설치
-1. 671년 : 문무왕
-2. 673년 : 문무왕
-3. 645년 : 선덕여왕</t>
+1. 509년 : 지증왕
+2. 520년 : 법흥왕
+3. 671년 : 문무왕</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1, 671년 : 문무왕</t>
+          <t>3, 671년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1349,14 +1349,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>신라 안승을 보덕국왕에 임명
-1. 514년 : 지증왕
-2. 487년 : 소지왕
-3. 673년 : 문무왕</t>
+1. 400년 : 내물왕
+2. 673년 : 문무왕
+3. 522년 : 법흥왕</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3, 673년 : 문무왕</t>
+          <t>2, 673년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1364,14 +1364,14 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>신라 당나라와 마전 적성 전투
-1. 645년 : 선덕여왕
-2. 674년 : 문무왕
-3. 660년 : 문무왕</t>
+1. 674년 : 문무왕
+2. 400년 : 내물왕
+3. 644년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2, 674년 : 문무왕</t>
+          <t>1, 674년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1379,14 +1379,14 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>신라 당나라와 매소성 전투
-1. 675년 : 문무왕
-2. 527년 : 법흥왕
-3. 644년 : 선덕여왕</t>
+1. -57년 : 박혁거세
+2. 675년 : 문무왕
+3. 648년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1, 675년 : 문무왕</t>
+          <t>2, 675년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1394,14 +1394,14 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>의상 부석사 건립
-1. 642년 : 선덕여왕
-2. 675년 : 문무왕
-3. 554년 : 진흥왕</t>
+1. 675년 : 문무왕
+2. 524년 : 법흥왕
+3. 487년 : 소지왕</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2, 675년 : 문무왕</t>
+          <t>1, 675년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1409,14 +1409,14 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>신라 당의 안동도호부 축출
-1. -57년 : 박혁거세
-2. 676년 : 문무왕
-3. 650년 : 진덕여왕</t>
+1. 676년 : 문무왕
+2. 647년 : 진덕여왕
+3. 551년 : 진흥왕</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2, 676년 : 문무왕</t>
+          <t>1, 676년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -1424,14 +1424,14 @@
       <c r="A67" t="inlineStr">
         <is>
           <t>신라 당나라와 기벌포 전투
-1. 562년 : 진흥왕
-2. 676년 : 문무왕
-3. 555년 : 진흥왕</t>
+1. 676년 : 문무왕
+2. 514년 : 지증왕
+3. 503년 : 지증왕</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2, 676년 : 문무왕</t>
+          <t>1, 676년 : 문무왕</t>
         </is>
       </c>
     </row>
